--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1983814.801262599</v>
+        <v>1979510.496293156</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9939864.200465001</v>
+        <v>9939864.200464999</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.5639921989977</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.5639921989977</v>
       </c>
       <c r="E2" t="n">
-        <v>263.5639921989976</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.5639921989976</v>
+        <v>263.5639921989977</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83561175645087</v>
+        <v>116.7851405701433</v>
       </c>
       <c r="H2" t="n">
-        <v>103.9495288136922</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3620237587339</v>
+        <v>115.3620237587338</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.5639921989976</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>99.48674643928075</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94827785225824</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.20026557072411</v>
+        <v>18.20026557072408</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1642178017449</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8440868802706</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545380905306</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>183.3908502527596</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>131.7732385960317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>24.98885985195205</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3878907573036</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11777503404791</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5335881704493</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7303985328715</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.5639921989977</v>
       </c>
       <c r="V4" t="n">
-        <v>159.0637870561714</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.5639921989977</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>215.0845781150033</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015061</v>
+        <v>97.26234557100793</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.1525249552777</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>129.5693051501692</v>
+        <v>10.18456372565657</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>120.5084574863876</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>90.20847670376963</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888211</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>28.36958878671066</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>190.8530297635675</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65.11614908338765</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>108.5156050399342</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1378,13 +1378,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722632</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576149</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>75.55208621972906</v>
       </c>
       <c r="F13" t="n">
-        <v>33.0162797694411</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576149</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>109.7234882887309</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>105.6507867899569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>172.0260335000785</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>107.3363007608859</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>132.6315337216697</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206823</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>43.73846614325627</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060384</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>58.24570521548731</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>40.96105405076429</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I34" t="n">
-        <v>67.43549003635356</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722624</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560513</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826188296</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>178.3456785990311</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>55.83068150864287</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>172.7365230047955</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892427717</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,13 +3954,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>279.4578096667698</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>150.8783572808979</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.0297140495281</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="C2" t="n">
-        <v>788.0297140495281</v>
+        <v>788.0297140495285</v>
       </c>
       <c r="D2" t="n">
-        <v>788.0297140495281</v>
+        <v>521.8034593030661</v>
       </c>
       <c r="E2" t="n">
-        <v>521.8034593030659</v>
+        <v>521.8034593030661</v>
       </c>
       <c r="F2" t="n">
-        <v>255.5772045566036</v>
+        <v>255.5772045566038</v>
       </c>
       <c r="G2" t="n">
-        <v>242.6119401561482</v>
+        <v>137.6124161019136</v>
       </c>
       <c r="H2" t="n">
         <v>137.6124161019136</v>
       </c>
       <c r="I2" t="n">
-        <v>21.08511937591981</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="J2" t="n">
-        <v>49.149946607011</v>
+        <v>50.19026732551941</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9503658164414</v>
+        <v>142.9906865349499</v>
       </c>
       <c r="L2" t="n">
-        <v>293.979253678073</v>
+        <v>295.0195743965816</v>
       </c>
       <c r="M2" t="n">
-        <v>495.8504424173906</v>
+        <v>495.8504424173905</v>
       </c>
       <c r="N2" t="n">
         <v>704.5447722238173</v>
       </c>
       <c r="O2" t="n">
-        <v>888.2736487381123</v>
+        <v>888.2736487381126</v>
       </c>
       <c r="P2" t="n">
         <v>1010.58099326632</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="W2" t="n">
-        <v>788.0297140495281</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="X2" t="n">
-        <v>788.0297140495281</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.0297140495281</v>
+        <v>1054.255968795991</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>477.8194747176499</v>
+        <v>258.974245585757</v>
       </c>
       <c r="C3" t="n">
-        <v>303.3664454365229</v>
+        <v>258.974245585757</v>
       </c>
       <c r="D3" t="n">
-        <v>303.3664454365229</v>
+        <v>258.974245585757</v>
       </c>
       <c r="E3" t="n">
-        <v>303.3664454365229</v>
+        <v>258.974245585757</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3664454365229</v>
+        <v>258.974245585757</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9689822966663</v>
+        <v>121.5767824459004</v>
       </c>
       <c r="H3" t="n">
-        <v>65.47731922668572</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="I3" t="n">
-        <v>21.08511937591981</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="J3" t="n">
-        <v>21.08511937591981</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="K3" t="n">
-        <v>95.64621773957415</v>
+        <v>95.64621773957424</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2253570557059</v>
+        <v>242.2253570557061</v>
       </c>
       <c r="M3" t="n">
-        <v>438.3258569153261</v>
+        <v>432.6331671185484</v>
       </c>
       <c r="N3" t="n">
-        <v>648.1818400501575</v>
+        <v>642.4891502533799</v>
       </c>
       <c r="O3" t="n">
-        <v>909.1101923271651</v>
+        <v>812.2465809289046</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.02243028045</v>
+        <v>1026.022430280451</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.871862158895</v>
+        <v>1035.871862158896</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.871862158895</v>
+        <v>887.2211371066281</v>
       </c>
       <c r="T3" t="n">
-        <v>839.0596531889249</v>
+        <v>887.2211371066281</v>
       </c>
       <c r="U3" t="n">
-        <v>610.9237561277829</v>
+        <v>887.2211371066281</v>
       </c>
       <c r="V3" t="n">
-        <v>610.9237561277829</v>
+        <v>652.0690288748854</v>
       </c>
       <c r="W3" t="n">
-        <v>610.9237561277829</v>
+        <v>466.8257457912898</v>
       </c>
       <c r="X3" t="n">
-        <v>610.9237561277829</v>
+        <v>258.974245585757</v>
       </c>
       <c r="Y3" t="n">
-        <v>477.8194747176499</v>
+        <v>258.974245585757</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>337.1727090873165</v>
+        <v>46.32639195364916</v>
       </c>
       <c r="C4" t="n">
-        <v>337.1727090873165</v>
+        <v>46.32639195364916</v>
       </c>
       <c r="D4" t="n">
-        <v>337.1727090873165</v>
+        <v>46.32639195364916</v>
       </c>
       <c r="E4" t="n">
-        <v>337.1727090873165</v>
+        <v>46.32639195364916</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2827615894062</v>
+        <v>46.32639195364916</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2827615894062</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="H4" t="n">
-        <v>36.35559920829144</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="I4" t="n">
-        <v>36.35559920829144</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="J4" t="n">
-        <v>21.08511937591981</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="K4" t="n">
         <v>126.327239195361</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5273535735298</v>
+        <v>316.5273535735299</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4558292559543</v>
+        <v>527.4558292559544</v>
       </c>
       <c r="N4" t="n">
-        <v>738.803513656828</v>
+        <v>738.8035136568282</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0010123005233</v>
+        <v>918.0010123005234</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.814747485825</v>
+        <v>1047.814747485826</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="R4" t="n">
-        <v>925.4341625632132</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="S4" t="n">
-        <v>718.6357802067774</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="T4" t="n">
-        <v>718.6357802067774</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="U4" t="n">
-        <v>718.6357802067774</v>
+        <v>788.0297140495285</v>
       </c>
       <c r="V4" t="n">
-        <v>557.9652882308467</v>
+        <v>533.3452258436416</v>
       </c>
       <c r="W4" t="n">
-        <v>557.9652882308467</v>
+        <v>267.1189710971793</v>
       </c>
       <c r="X4" t="n">
-        <v>557.9652882308467</v>
+        <v>267.1189710971793</v>
       </c>
       <c r="Y4" t="n">
-        <v>337.1727090873165</v>
+        <v>46.32639195364916</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>634.167062227511</v>
+        <v>956.6107264999562</v>
       </c>
       <c r="C5" t="n">
-        <v>416.9099126163966</v>
+        <v>690.2330699327781</v>
       </c>
       <c r="D5" t="n">
-        <v>416.9099126163966</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E5" t="n">
-        <v>416.9099126163966</v>
+        <v>157.477756798422</v>
       </c>
       <c r="F5" t="n">
         <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757742</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757742</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>634.167062227511</v>
+        <v>956.6107264999562</v>
       </c>
       <c r="W5" t="n">
-        <v>634.167062227511</v>
+        <v>956.6107264999562</v>
       </c>
       <c r="X5" t="n">
-        <v>634.167062227511</v>
+        <v>956.6107264999562</v>
       </c>
       <c r="Y5" t="n">
-        <v>634.167062227511</v>
+        <v>956.6107264999562</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>312.4812888507258</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>312.4812888507258</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>312.4812888507258</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>312.4812888507258</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>165.9467308776108</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776108</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957459</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302313</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267551</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
         <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560897</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4676,22 +4676,22 @@
         <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>839.7105578442523</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>611.5747118810658</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>611.5747118810658</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>611.5747118810658</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>480.6966258707939</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>480.6966258707939</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>593.383997210649</v>
+        <v>158.0472685670595</v>
       </c>
       <c r="C7" t="n">
-        <v>424.4478142827421</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="D7" t="n">
-        <v>274.3311748704064</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434485</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434485</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434485</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434485</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4752,25 +4752,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>593.383997210649</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>593.383997210649</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="X7" t="n">
-        <v>593.383997210649</v>
+        <v>560.4883125408294</v>
       </c>
       <c r="Y7" t="n">
-        <v>593.383997210649</v>
+        <v>339.6957333972993</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1248.370234799863</v>
+        <v>861.3216348137587</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>861.3216348137587</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>861.3216348137587</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>861.3216348137587</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>450.3357300241511</v>
       </c>
       <c r="G8" t="n">
         <v>421.6795797345444</v>
@@ -4801,55 +4801,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2244.859282781609</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>1991.278222045789</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>1991.278222045789</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W8" t="n">
-        <v>1638.509566775675</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X8" t="n">
-        <v>1638.509566775675</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y8" t="n">
-        <v>1248.370234799863</v>
+        <v>861.3216348137587</v>
       </c>
     </row>
     <row r="9">
@@ -4865,13 +4865,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4880,43 +4880,43 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605191</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919908</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>475.205037342667</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>475.205037342667</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>325.0883979303312</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>325.0883979303312</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1526.834397811937</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.86271359008</v>
+        <v>1303.855917006673</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.86271359008</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="V10" t="n">
-        <v>1279.178225384193</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="W10" t="n">
-        <v>989.7610553472323</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="X10" t="n">
-        <v>761.7715044492149</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="Y10" t="n">
-        <v>540.9789253056848</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5071,22 +5071,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424041</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D13" t="n">
-        <v>376.4492432300683</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E13" t="n">
-        <v>376.4492432300683</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5238,13 +5238,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5308,22 +5308,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5366,13 +5366,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2273.199413378161</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2273.199413378161</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="17">
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5536,22 +5536,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2273.199413378161</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5837,22 +5837,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3227.225672628157</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3058.28948970025</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2908.172850287915</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2760.259756705521</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2613.369809207611</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4401.757925742791</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4147.073437536905</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3857.656267499944</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3629.666716601927</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3408.874137458397</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3007.624207651098</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>2838.688024723192</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D25" t="n">
-        <v>2794.50775589162</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E25" t="n">
-        <v>2646.594662309226</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F25" t="n">
-        <v>2646.594662309226</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>4471.231687421535</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>4182.156460765733</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>3927.471972559846</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>3638.054802522885</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>3410.065251624868</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>3189.272672481338</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6217,37 +6217,37 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>3060.83890577277</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3658.217393399322</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>4267.210002903525</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2880.538088716435</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2711.601905788528</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2381.235169913446</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>2978.613657539998</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>3606.211621094605</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1057.955258982919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>889.0190760550122</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>738.9024366426764</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>590.9893430602833</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>444.0993955623729</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>276.9032962772529</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>135.191465119451</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1688.385853854706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1460.396302956689</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1239.603723813159</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>917.5010142286973</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>748.5648313007904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>598.4481918884546</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>450.5350983060615</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>303.6451508081511</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>303.6451508081511</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>161.9333196503492</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1099.149479058937</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6928,22 +6928,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6955,31 +6955,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>580.8993044876611</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>411.9631215597542</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>261.8464821474184</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>113.9333885650253</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782882</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038267</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797668</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910801</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.56011257081</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279794</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853353</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580253</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580253</v>
       </c>
       <c r="S37" t="n">
-        <v>2199.770229732631</v>
+        <v>2264.108249235157</v>
       </c>
       <c r="T37" t="n">
-        <v>2199.770229732631</v>
+        <v>2044.506784258098</v>
       </c>
       <c r="U37" t="n">
-        <v>1910.695003076829</v>
+        <v>1755.431557602296</v>
       </c>
       <c r="V37" t="n">
-        <v>1656.010514870942</v>
+        <v>1500.747069396409</v>
       </c>
       <c r="W37" t="n">
-        <v>1366.593344833982</v>
+        <v>1211.329899359448</v>
       </c>
       <c r="X37" t="n">
-        <v>1138.603793935964</v>
+        <v>983.3403484614309</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>762.5477693179008</v>
       </c>
     </row>
     <row r="38">
@@ -7165,43 +7165,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356195</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2323.522752046155</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2103.921287069096</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1814.846060413294</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1560.161572207407</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1560.161572207407</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>1332.172021309389</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>1111.379442165859</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="41">
@@ -7405,28 +7405,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7438,22 +7438,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7499,16 +7499,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C43" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D43" t="n">
-        <v>491.0125592675714</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782912</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038298</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W43" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X43" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y43" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7675,25 +7675,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>809.0422355233313</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>640.1060525954244</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>489.9894131830887</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.660164395751</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.584937739949</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.900449534062</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.483279497101</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.483279497101</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>990.6907003535711</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.05082900859426</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.050829008594889</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.60994937518669</v>
+        <v>60.60994937518663</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.123866789362566</v>
+        <v>2.123866789362523</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,16 +8066,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>5.750191713917218</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.09184000149804</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.84203171541481</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418294</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>97.32166909127284</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111066</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>70.88187642684011</v>
       </c>
       <c r="F13" t="n">
-        <v>112.4047682534901</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>38.89198472948144</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>75.37549921168767</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>45.37941682720972</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>144.8013425629421</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>32.89260457059919</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>104.8770068749561</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>121.58627496645</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>40.30478226780124</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I34" t="n">
-        <v>13.83034628221198</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>125.5054897610483</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
-        <v>2.680607402613447</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>125.1956044930017</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>45.84813034729925</v>
       </c>
     </row>
     <row r="41">
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>65.54986409393518</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>7.065188669821168</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>66.52709304639035</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>872865.0466981611</v>
+        <v>872865.0466981609</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>872830.2540873901</v>
+        <v>872830.25408739</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>854823.2572546544</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>854823.2572546544</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>854823.2572546544</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>854823.2572546544</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>854823.2572546544</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546541</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546541</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830042</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="N2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="L2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679693.2761163119</v>
+        <v>679693.276116312</v>
       </c>
       <c r="C3" t="n">
-        <v>373.9475389965111</v>
+        <v>373.9475389964927</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059439</v>
+        <v>391128.3638059433</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68959.93717491454</v>
+        <v>68959.93717491462</v>
       </c>
       <c r="K3" t="n">
-        <v>38.57632395601911</v>
+        <v>38.57632395594596</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.6461375698</v>
+        <v>95382.64613756984</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246846.0156077615</v>
+        <v>246846.0156077614</v>
       </c>
       <c r="C4" t="n">
         <v>246753.8673982314</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732025</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732025</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732028</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732038</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732006</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732021</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
+        <v>8117.312426732031</v>
+      </c>
+      <c r="M4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="M4" t="n">
-        <v>8117.312426731945</v>
-      </c>
       <c r="N4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.31242673204</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731996</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63030.89693360371</v>
+        <v>63030.89693360373</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>264553.6207635046</v>
       </c>
       <c r="D6" t="n">
-        <v>-43654.89760265389</v>
+        <v>-43654.89760265299</v>
       </c>
       <c r="E6" t="n">
-        <v>-51722.66409218047</v>
+        <v>-52070.04334653757</v>
       </c>
       <c r="F6" t="n">
-        <v>455762.7775323651</v>
+        <v>455415.398278008</v>
       </c>
       <c r="G6" t="n">
-        <v>455762.7775323652</v>
+        <v>455415.3982780084</v>
       </c>
       <c r="H6" t="n">
-        <v>455762.7775323655</v>
+        <v>455415.3982780084</v>
       </c>
       <c r="I6" t="n">
-        <v>455762.7775323655</v>
+        <v>455415.3982780084</v>
       </c>
       <c r="J6" t="n">
-        <v>386802.8403574508</v>
+        <v>386455.4611030936</v>
       </c>
       <c r="K6" t="n">
-        <v>455724.2012084093</v>
+        <v>455376.8219540523</v>
       </c>
       <c r="L6" t="n">
-        <v>360380.1313947956</v>
+        <v>360032.7521404384</v>
       </c>
       <c r="M6" t="n">
-        <v>323155.4838034388</v>
+        <v>322808.1045490816</v>
       </c>
       <c r="N6" t="n">
-        <v>455762.7775323652</v>
+        <v>455415.3982780083</v>
       </c>
       <c r="O6" t="n">
-        <v>455762.7775323652</v>
+        <v>455415.3982780082</v>
       </c>
       <c r="P6" t="n">
-        <v>455762.7775323655</v>
+        <v>455415.3982780083</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726909</v>
+        <v>613.6975324726911</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989976</v>
+        <v>263.5639921989977</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726909</v>
+        <v>613.6975324726911</v>
       </c>
       <c r="C3" t="n">
         <v>0.3574812967872276</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480613</v>
+        <v>320.0098783480607</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989976</v>
+        <v>263.5639921989977</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1498878025085446</v>
+        <v>0.1498878025084878</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985329</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989976</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025085446</v>
+        <v>0.1498878025082604</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985329</v>
+        <v>376.8709520985331</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996088</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989976</v>
+        <v>263.5639921989977</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025085446</v>
+        <v>0.1498878025084878</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985329</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.7088995720098</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>91.11904942168525</v>
       </c>
       <c r="E2" t="n">
-        <v>118.3663778732642</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.3120535427138</v>
+        <v>143.3120535427137</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>296.0504711863076</v>
       </c>
       <c r="H2" t="n">
-        <v>210.2588216259505</v>
+        <v>314.2083504396427</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.67697651841542</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.94827785225823</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1642178017449</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8440868802706</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8545380905306</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>68.30413290816003</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>73.9094571812727</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27548,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8843116769506</v>
+        <v>141.8954518249986</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3878907573036</v>
       </c>
       <c r="I4" t="n">
         <v>122.1699595597228</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.11777503404788</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5335881704493</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7303985328714</v>
       </c>
       <c r="T4" t="n">
         <v>223.2171002436558</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586656647723</v>
+        <v>22.69467346577455</v>
       </c>
       <c r="V4" t="n">
-        <v>93.07385626765657</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.95900613759329</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,16 +27618,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>150.1883136560043</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27675,7 +27675,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>230.489912899127</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27697,13 +27697,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27748,10 +27748,10 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27760,10 +27760,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>76.20368005330826</v>
+        <v>195.5884214778209</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>46.73836361224026</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>56.22548594279954</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27794,7 +27794,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27833,16 +27833,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>383.1781139862433</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>15.80515521666624</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>114.7158310985496</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>86.14685532180324</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29043,7 +29043,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>7.07318341828168e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29994,7 +29994,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-6.429578708524912e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
     </row>
     <row r="36">
@@ -30167,7 +30167,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>-7.541226902200529e-12</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30528,7 +30528,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="42">
@@ -30641,7 +30641,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>-3.150052318599543e-12</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467125758684183</v>
+        <v>2.467125758684184</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26645167612439</v>
+        <v>25.2664516761244</v>
       </c>
       <c r="I2" t="n">
-        <v>95.11386581167204</v>
+        <v>95.11386581167208</v>
       </c>
       <c r="J2" t="n">
-        <v>209.3942148611218</v>
+        <v>209.3942148611219</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8276482262233</v>
+        <v>313.8276482262235</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3309481635545</v>
+        <v>389.3309481635546</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2056958745543</v>
+        <v>433.2056958745545</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2154169364158</v>
+        <v>440.2154169364159</v>
       </c>
       <c r="O2" t="n">
-        <v>415.6829351734999</v>
+        <v>415.6829351735001</v>
       </c>
       <c r="P2" t="n">
-        <v>354.7757680059841</v>
+        <v>354.7757680059842</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4218267731067</v>
+        <v>266.4218267731068</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9755884389454</v>
+        <v>154.9755884389455</v>
       </c>
       <c r="S2" t="n">
-        <v>56.21962822601587</v>
+        <v>56.21962822601589</v>
       </c>
       <c r="T2" t="n">
         <v>10.79984300864002</v>
@@ -31123,46 +31123,46 @@
         <v>1.320028654752581</v>
       </c>
       <c r="H3" t="n">
-        <v>12.74869779721571</v>
+        <v>12.74869779721572</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44835499915683</v>
+        <v>45.44835499915685</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7137598773041</v>
+        <v>124.7137598773042</v>
       </c>
       <c r="K3" t="n">
-        <v>213.155679745727</v>
+        <v>213.1556797457271</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6141164628355</v>
+        <v>286.6141164628356</v>
       </c>
       <c r="M3" t="n">
-        <v>334.4651551976165</v>
+        <v>334.4651551976166</v>
       </c>
       <c r="N3" t="n">
-        <v>343.317452623567</v>
+        <v>343.3174526235671</v>
       </c>
       <c r="O3" t="n">
-        <v>314.068396641944</v>
+        <v>314.0683966419441</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0675770641134</v>
+        <v>252.0675770641135</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5004998592943</v>
+        <v>168.5004998592944</v>
       </c>
       <c r="R3" t="n">
-        <v>81.95756858191902</v>
+        <v>81.95756858191905</v>
       </c>
       <c r="S3" t="n">
-        <v>24.51895330209287</v>
+        <v>24.51895330209288</v>
       </c>
       <c r="T3" t="n">
-        <v>5.320641814550969</v>
+        <v>5.320641814550972</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08684399044424874</v>
+        <v>0.08684399044424879</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,22 +31202,22 @@
         <v>1.106667681508131</v>
       </c>
       <c r="H4" t="n">
-        <v>9.839281750135935</v>
+        <v>9.839281750135939</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28051536753544</v>
+        <v>33.28051536753546</v>
       </c>
       <c r="J4" t="n">
-        <v>78.24140508262487</v>
+        <v>78.24140508262489</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5746633606719</v>
+        <v>128.574663360672</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5313023943998</v>
+        <v>164.5313023943999</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4751893840427</v>
+        <v>173.4751893840428</v>
       </c>
       <c r="N4" t="n">
         <v>169.3503371166035</v>
@@ -31229,19 +31229,19 @@
         <v>133.8464257707652</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.66832740337632</v>
+        <v>92.66832740337635</v>
       </c>
       <c r="R4" t="n">
-        <v>49.75980320672014</v>
+        <v>49.75980320672015</v>
       </c>
       <c r="S4" t="n">
         <v>19.28619950410079</v>
       </c>
       <c r="T4" t="n">
-        <v>4.72848918462565</v>
+        <v>4.728489184625651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0603636917186254</v>
+        <v>0.06036369171862542</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350879</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,22 +31436,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582787</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
         <v>173.576239384051</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,25 +31679,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,19 +31849,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32086,16 +32086,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>639.4703354763103</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,10 +32320,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32332,10 +32332,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>202.2352659288688</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,37 +32551,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O21" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,37 +32788,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>577.744719843939</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P24" t="n">
-        <v>230.9747494877451</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,28 +33022,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>746.485762087579</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,40 +33259,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O30" t="n">
-        <v>574.6535388222615</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,40 +33496,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982898</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>436.4492970000073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,40 +33733,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>444.22749159829</v>
       </c>
       <c r="N36" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,40 +33970,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,37 +34210,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,40 +34444,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>314.105962234273</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.34831033443555</v>
+        <v>29.3991393430299</v>
       </c>
       <c r="K2" t="n">
-        <v>93.7377971812428</v>
+        <v>93.73779718124291</v>
       </c>
       <c r="L2" t="n">
-        <v>153.5645331935672</v>
+        <v>153.5645331935674</v>
       </c>
       <c r="M2" t="n">
-        <v>203.9102916558764</v>
+        <v>202.8594626472817</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8023533398249</v>
+        <v>210.802353339825</v>
       </c>
       <c r="O2" t="n">
-        <v>185.5847237518132</v>
+        <v>185.5847237518134</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5427722507146</v>
+        <v>123.5427722507147</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.11613689865723</v>
+        <v>44.11613689865735</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.31424077136802</v>
+        <v>75.31424077136811</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0597366829613</v>
+        <v>148.0597366829614</v>
       </c>
       <c r="M3" t="n">
-        <v>198.0813129895154</v>
+        <v>192.3311212755983</v>
       </c>
       <c r="N3" t="n">
-        <v>211.9757405402337</v>
+        <v>211.9757405402338</v>
       </c>
       <c r="O3" t="n">
-        <v>263.5639921989976</v>
+        <v>171.4721521974997</v>
       </c>
       <c r="P3" t="n">
-        <v>118.0931696497832</v>
+        <v>215.9352013651981</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.51872577327282</v>
+        <v>28.51872577327288</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,22 +34862,22 @@
         <v>106.3051715347891</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1213276547159</v>
+        <v>192.121327654716</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0590663458833</v>
+        <v>213.0590663458834</v>
       </c>
       <c r="N4" t="n">
         <v>213.4825094958321</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0075743875708</v>
+        <v>181.0075743875709</v>
       </c>
       <c r="P4" t="n">
         <v>131.1249850356587</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.506284151681939</v>
+        <v>6.506284151681967</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763041</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>245.548359657229</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649636</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35111,10 +35111,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496811</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560635</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419612</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,19 +35497,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35734,16 +35734,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>508.128623392977</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,10 +35968,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35980,10 +35980,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>68.26085851453861</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O21" t="n">
-        <v>55.96455263125101</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640649</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P24" t="n">
-        <v>97.00034207341486</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.587454168383</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>615.1440500042457</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396427</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O30" t="n">
-        <v>432.057294377817</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762715</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>302.0934576762717</v>
       </c>
       <c r="N36" t="n">
-        <v>274.2960242312443</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294578</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294881</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.587454168382</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>176.264523259914</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1979510.496293156</v>
+        <v>1981271.026595942</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445190.96012775</v>
+        <v>12445190.96012776</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283193</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.5639921989977</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.5639921989977</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.563992198999</v>
       </c>
       <c r="F2" t="n">
-        <v>263.5639921989977</v>
+        <v>130.6147086121567</v>
       </c>
       <c r="G2" t="n">
-        <v>116.7851405701433</v>
+        <v>263.563992198999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3620237587338</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.8004413602292</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2960065554913</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>59.09742485591595</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0234885084581</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48674643928075</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.20026557072408</v>
+        <v>18.20026557072367</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1642178017449</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8440868802706</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>183.3908502527596</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>24.98885985195205</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>31.62677959183823</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5335881704491</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.5639921989977</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.5639921989977</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015062</v>
+        <v>12.84496163790551</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>97.26234557100793</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>65.395245261935</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565657</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>120.5084574863876</v>
+        <v>48.2027943444968</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>28.36958878671066</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>53.43995086960471</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>108.5156050399342</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>23.94563726208663</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722632</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576149</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>75.55208621972906</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634817</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576149</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>109.7234882887309</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>64.36993339924427</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>9.146142788176274</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2061,10 +2061,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>107.3363007608859</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206823</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576164</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>160.9359580870421</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>55.52079624060384</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.146142788182999</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428166</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>19.91555826188296</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018893</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>172.7365230047955</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>83.06560892427717</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.255968795991</v>
+        <v>685.4716779720358</v>
       </c>
       <c r="C2" t="n">
-        <v>788.0297140495285</v>
+        <v>685.4716779720358</v>
       </c>
       <c r="D2" t="n">
-        <v>521.8034593030661</v>
+        <v>685.4716779720358</v>
       </c>
       <c r="E2" t="n">
-        <v>521.8034593030661</v>
+        <v>419.2454232255722</v>
       </c>
       <c r="F2" t="n">
-        <v>255.5772045566038</v>
+        <v>287.3113741223835</v>
       </c>
       <c r="G2" t="n">
-        <v>137.6124161019136</v>
+        <v>21.08511937591992</v>
       </c>
       <c r="H2" t="n">
-        <v>137.6124161019136</v>
+        <v>21.08511937591992</v>
       </c>
       <c r="I2" t="n">
-        <v>21.08511937591982</v>
+        <v>21.08511937591992</v>
       </c>
       <c r="J2" t="n">
-        <v>50.19026732551941</v>
+        <v>49.14994660701224</v>
       </c>
       <c r="K2" t="n">
-        <v>142.9906865349499</v>
+        <v>141.9503658164443</v>
       </c>
       <c r="L2" t="n">
-        <v>295.0195743965816</v>
+        <v>293.979253678078</v>
       </c>
       <c r="M2" t="n">
-        <v>495.8504424173905</v>
+        <v>494.810121698889</v>
       </c>
       <c r="N2" t="n">
         <v>704.5447722238173</v>
       </c>
       <c r="O2" t="n">
-        <v>888.2736487381126</v>
+        <v>888.2736487381145</v>
       </c>
       <c r="P2" t="n">
-        <v>1010.58099326632</v>
+        <v>1010.580993266324</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.255968795991</v>
+        <v>1054.255968795996</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.255968795991</v>
+        <v>1054.255968795996</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.255968795991</v>
+        <v>899.9120886341482</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.255968795991</v>
+        <v>685.4716779720358</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.255968795991</v>
+        <v>685.4716779720358</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.255968795991</v>
+        <v>685.4716779720358</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.255968795991</v>
+        <v>685.4716779720358</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.255968795991</v>
+        <v>685.4716779720358</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.255968795991</v>
+        <v>685.4716779720358</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>258.974245585757</v>
+        <v>255.2325171983762</v>
       </c>
       <c r="C3" t="n">
-        <v>258.974245585757</v>
+        <v>80.77948791724916</v>
       </c>
       <c r="D3" t="n">
-        <v>258.974245585757</v>
+        <v>21.08511937591992</v>
       </c>
       <c r="E3" t="n">
-        <v>258.974245585757</v>
+        <v>21.08511937591992</v>
       </c>
       <c r="F3" t="n">
-        <v>258.974245585757</v>
+        <v>21.08511937591992</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5767824459004</v>
+        <v>21.08511937591992</v>
       </c>
       <c r="H3" t="n">
-        <v>21.08511937591982</v>
+        <v>21.08511937591992</v>
       </c>
       <c r="I3" t="n">
-        <v>21.08511937591982</v>
+        <v>21.08511937591992</v>
       </c>
       <c r="J3" t="n">
-        <v>21.08511937591982</v>
+        <v>21.08511937591992</v>
       </c>
       <c r="K3" t="n">
-        <v>95.64621773957424</v>
+        <v>192.5098291378316</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2253570557061</v>
+        <v>339.0889684539649</v>
       </c>
       <c r="M3" t="n">
-        <v>432.6331671185484</v>
+        <v>529.4967785168088</v>
       </c>
       <c r="N3" t="n">
-        <v>642.4891502533799</v>
+        <v>739.352761651642</v>
       </c>
       <c r="O3" t="n">
-        <v>812.2465809289046</v>
+        <v>909.1101923271683</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.022430280451</v>
+        <v>1026.022430280455</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.255968795991</v>
+        <v>1054.255968795996</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.871862158896</v>
+        <v>1035.871862158901</v>
       </c>
       <c r="S3" t="n">
-        <v>887.2211371066281</v>
+        <v>1035.871862158901</v>
       </c>
       <c r="T3" t="n">
-        <v>887.2211371066281</v>
+        <v>839.059653188931</v>
       </c>
       <c r="U3" t="n">
-        <v>887.2211371066281</v>
+        <v>839.059653188931</v>
       </c>
       <c r="V3" t="n">
-        <v>652.0690288748854</v>
+        <v>839.059653188931</v>
       </c>
       <c r="W3" t="n">
-        <v>466.8257457912898</v>
+        <v>839.059653188931</v>
       </c>
       <c r="X3" t="n">
-        <v>258.974245585757</v>
+        <v>631.2081529833981</v>
       </c>
       <c r="Y3" t="n">
-        <v>258.974245585757</v>
+        <v>423.4478542184442</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46.32639195364916</v>
+        <v>221.9675443157846</v>
       </c>
       <c r="C4" t="n">
-        <v>46.32639195364916</v>
+        <v>53.03136138787772</v>
       </c>
       <c r="D4" t="n">
-        <v>46.32639195364916</v>
+        <v>53.03136138787772</v>
       </c>
       <c r="E4" t="n">
-        <v>46.32639195364916</v>
+        <v>53.03136138787772</v>
       </c>
       <c r="F4" t="n">
-        <v>46.32639195364916</v>
+        <v>53.03136138787772</v>
       </c>
       <c r="G4" t="n">
-        <v>21.08511937591982</v>
+        <v>53.03136138787772</v>
       </c>
       <c r="H4" t="n">
-        <v>21.08511937591982</v>
+        <v>21.08511937591992</v>
       </c>
       <c r="I4" t="n">
-        <v>21.08511937591982</v>
+        <v>21.08511937591992</v>
       </c>
       <c r="J4" t="n">
-        <v>21.08511937591982</v>
+        <v>21.08511937591992</v>
       </c>
       <c r="K4" t="n">
-        <v>126.327239195361</v>
+        <v>126.3272391953617</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5273535735299</v>
+        <v>316.5273535735313</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4558292559544</v>
+        <v>527.4558292559567</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8035136568282</v>
+        <v>738.8035136568313</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0010123005234</v>
+        <v>918.0010123005273</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.814747485826</v>
+        <v>1047.81474748583</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.255968795991</v>
+        <v>1054.255968795996</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.255968795991</v>
+        <v>925.4341625632189</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.255968795991</v>
+        <v>925.4341625632189</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.255968795991</v>
+        <v>925.4341625632189</v>
       </c>
       <c r="U4" t="n">
-        <v>788.0297140495285</v>
+        <v>925.4341625632189</v>
       </c>
       <c r="V4" t="n">
-        <v>533.3452258436416</v>
+        <v>670.7496743573321</v>
       </c>
       <c r="W4" t="n">
-        <v>267.1189710971793</v>
+        <v>670.7496743573321</v>
       </c>
       <c r="X4" t="n">
-        <v>267.1189710971793</v>
+        <v>442.7601234593147</v>
       </c>
       <c r="Y4" t="n">
-        <v>46.32639195364916</v>
+        <v>221.9675443157846</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>956.6107264999562</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="C5" t="n">
-        <v>690.2330699327781</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="D5" t="n">
-        <v>423.8554133656</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>157.477756798422</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>150.5322560492186</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991318</v>
@@ -4597,22 +4597,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="V5" t="n">
-        <v>956.6107264999562</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="W5" t="n">
-        <v>956.6107264999562</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="X5" t="n">
-        <v>956.6107264999562</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="Y5" t="n">
-        <v>956.6107264999562</v>
+        <v>586.7364457822814</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004802</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4682,16 +4682,16 @@
         <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>339.2786710473376</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>131.5183722823837</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.0472685670595</v>
+        <v>85.01124519141231</v>
       </c>
       <c r="C7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4761,16 +4761,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="W7" t="n">
-        <v>788.4778634388467</v>
+        <v>533.7933752329598</v>
       </c>
       <c r="X7" t="n">
-        <v>560.4883125408294</v>
+        <v>305.8038243349424</v>
       </c>
       <c r="Y7" t="n">
-        <v>339.6957333972993</v>
+        <v>85.01124519141231</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>861.3216348137587</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="C8" t="n">
-        <v>861.3216348137587</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="D8" t="n">
-        <v>861.3216348137587</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="E8" t="n">
-        <v>861.3216348137587</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="F8" t="n">
-        <v>450.3357300241511</v>
+        <v>116.8908811564463</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>105.2265349211392</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4807,10 +4807,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.46096678957</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y8" t="n">
-        <v>861.3216348137587</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
@@ -4883,7 +4883,7 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
         <v>560.1394111735141</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>981.8280128167644</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>812.8918298888575</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4962,25 +4962,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1526.834397811937</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1303.855917006673</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1014.73757951051</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1014.73757951051</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1014.73757951051</v>
+        <v>1612.258607688551</v>
       </c>
       <c r="X10" t="n">
-        <v>1014.73757951051</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5071,22 +5071,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770319</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>634.334587849125</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>484.2179484367892</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E13" t="n">
         <v>407.9027098310023</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072716</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5308,22 +5308,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>835.5837926935558</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C16" t="n">
-        <v>666.6476097656489</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2381.942948833549</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2199.088114488453</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1979.486649511395</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1690.411422855592</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.431557602304</v>
+        <v>1435.726934649706</v>
       </c>
       <c r="W16" t="n">
-        <v>1466.014387565343</v>
+        <v>1146.309764612745</v>
       </c>
       <c r="X16" t="n">
-        <v>1238.024836667326</v>
+        <v>918.3202137147275</v>
       </c>
       <c r="Y16" t="n">
-        <v>1017.232257523796</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="17">
@@ -5497,31 +5497,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5533,31 +5533,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876656</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>411.9631215597587</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>411.9631215597587</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
         <v>402.7245934908938</v>
@@ -5667,58 +5667,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235162</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258103</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.4315576023</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.011051783227</v>
+        <v>1500.747069396414</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359453</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614355</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179054</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5840,10 +5840,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5889,34 +5889,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5989,22 +5989,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438179</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>945.402603663004</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122182</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6150,10 +6150,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6223,31 +6223,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6302,7 +6302,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6314,10 +6314,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6387,10 +6387,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6445,25 +6445,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075813</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6551,10 +6551,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876725</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597656</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597656</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597656</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597656</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746455</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>103.0551911168436</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6642,31 +6642,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235168</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.50678425811</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602307</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.74706939642</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.32989935946</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614423</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179122</v>
       </c>
     </row>
     <row r="32">
@@ -6694,19 +6694,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6718,31 +6718,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,7 +6773,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
         <v>95.58405025273903</v>
@@ -6788,10 +6788,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6852,10 +6852,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876611</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597542</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474184</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>113.9333885650253</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797183</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797183</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782882</v>
+        <v>174.0526814782994</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038267</v>
+        <v>435.741944003838</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797668</v>
+        <v>826.1405381797781</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910801</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.56011257081</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279794</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853353</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580253</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580253</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235157</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258098</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602296</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396409</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359448</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614309</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179008</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7165,43 +7165,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,28 +7405,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7438,22 +7438,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7499,10 +7499,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400667</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121598</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782912</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038298</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797699</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648815</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611854</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138365</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703064</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7675,25 +7675,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7736,10 +7736,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797186</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797186</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.05082900859426</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7990,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.050829008585168</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.60994937518663</v>
+        <v>60.60994937518586</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.123866789362523</v>
+        <v>2.123866789361898</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.84203171541031</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.84203171541481</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069063</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>70.88187642684011</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>38.89198472948144</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>2.005313310877412</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>137.2878198583929</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>144.8013425629421</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>6.310863011585781</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>72.11969353038253</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194223</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>125.5054897610483</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>57.22910392193867</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>45.84813034729925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>65.54986409393518</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>872865.0466981609</v>
+        <v>872865.0466981607</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546544</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546544</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>854823.2572546541</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>854823.2572546541</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830042</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830042</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830044</v>
@@ -26337,25 +26337,25 @@
         <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="N2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="O2" t="n">
-        <v>565002.6197830042</v>
-      </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679693.276116312</v>
+        <v>679693.2761163155</v>
       </c>
       <c r="C3" t="n">
-        <v>373.9475389964927</v>
+        <v>373.9475389931722</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059433</v>
+        <v>391128.3638059435</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68959.93717491462</v>
+        <v>68959.93717491497</v>
       </c>
       <c r="K3" t="n">
-        <v>38.57632395594596</v>
+        <v>38.5763239556684</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756984</v>
+        <v>95382.64613756974</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289265</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246846.0156077614</v>
+        <v>246846.0156077606</v>
       </c>
       <c r="C4" t="n">
         <v>246753.8673982314</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
+        <v>8117.312426731974</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8117.312426731922</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8117.312426731924</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8117.312426731937</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8117.312426731933</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8117.312426731974</v>
+      </c>
+      <c r="K4" t="n">
         <v>8117.312426732025</v>
       </c>
-      <c r="F4" t="n">
+      <c r="L4" t="n">
+        <v>8117.312426732015</v>
+      </c>
+      <c r="M4" t="n">
         <v>8117.312426732025</v>
       </c>
-      <c r="G4" t="n">
-        <v>8117.312426732028</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8117.312426732038</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8117.312426732006</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8117.312426732021</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8117.312426732031</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8117.31242673204</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731996</v>
+        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63030.89693360373</v>
+        <v>63030.89693360387</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-414840.9497526787</v>
+        <v>-414840.9497526815</v>
       </c>
       <c r="C6" t="n">
-        <v>264553.6207635046</v>
+        <v>264553.620763508</v>
       </c>
       <c r="D6" t="n">
-        <v>-43654.89760265299</v>
+        <v>-43654.8976026536</v>
       </c>
       <c r="E6" t="n">
-        <v>-52070.04334653757</v>
+        <v>-51757.4020176164</v>
       </c>
       <c r="F6" t="n">
-        <v>455415.398278008</v>
+        <v>455728.0396069294</v>
       </c>
       <c r="G6" t="n">
-        <v>455415.3982780084</v>
+        <v>455728.0396069296</v>
       </c>
       <c r="H6" t="n">
-        <v>455415.3982780084</v>
+        <v>455728.0396069298</v>
       </c>
       <c r="I6" t="n">
-        <v>455415.3982780084</v>
+        <v>455728.0396069298</v>
       </c>
       <c r="J6" t="n">
-        <v>386455.4611030936</v>
+        <v>386768.1024320148</v>
       </c>
       <c r="K6" t="n">
-        <v>455376.8219540523</v>
+        <v>455689.4632829739</v>
       </c>
       <c r="L6" t="n">
-        <v>360032.7521404384</v>
+        <v>360345.3934693598</v>
       </c>
       <c r="M6" t="n">
-        <v>322808.1045490816</v>
+        <v>323120.7458780032</v>
       </c>
       <c r="N6" t="n">
-        <v>455415.3982780083</v>
+        <v>455728.0396069295</v>
       </c>
       <c r="O6" t="n">
-        <v>455415.3982780082</v>
+        <v>455728.0396069296</v>
       </c>
       <c r="P6" t="n">
-        <v>455415.3982780083</v>
+        <v>455728.0396069295</v>
       </c>
     </row>
   </sheetData>
@@ -26694,31 +26694,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.218023548783847e-14</v>
       </c>
-      <c r="F2" t="n">
+      <c r="L2" t="n">
         <v>3.218023548783847e-14</v>
       </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
         <v>3.218023548783847e-14</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726911</v>
+        <v>613.6975324726942</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989977</v>
+        <v>263.563992198999</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26916,22 +26916,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-3.218023548783847e-14</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>3.218023548783847e-14</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726911</v>
+        <v>613.6975324726942</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3574812967872276</v>
+        <v>0.3574812967840444</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480607</v>
+        <v>320.009878348061</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989977</v>
+        <v>263.563992198999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1498878025084878</v>
+        <v>0.1498878025071819</v>
       </c>
       <c r="D4" t="n">
         <v>376.8709520985327</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989979</v>
+        <v>263.5639921989992</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025082604</v>
+        <v>0.1498878025071819</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985331</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996088</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,22 +27153,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>3.218023548783847e-14</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989977</v>
+        <v>263.563992198999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025084878</v>
+        <v>0.1498878025071819</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985327</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.7088995720098</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>91.11904942168525</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.3663778732628</v>
       </c>
       <c r="F2" t="n">
-        <v>143.3120535427137</v>
+        <v>276.2613371295547</v>
       </c>
       <c r="G2" t="n">
-        <v>296.0504711863076</v>
+        <v>149.2716195574519</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2083504396427</v>
+        <v>314.2083504396426</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3620237587334</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.8004413602295</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2960065554913</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1482828471418</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>88.34764070872281</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0234885084581</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.48674643928068</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94827785225823</v>
+        <v>43.948277852258</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1642178017448</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8440868802706</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8545380905306</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>68.30413290816003</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>141.8954518249986</v>
+        <v>166.8843116769506</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3878907573036</v>
+        <v>120.7611111654654</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1699595597228</v>
+        <v>122.1699595597227</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11777503404788</v>
+        <v>15.1177750340475</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5335881704493</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7303985328714</v>
@@ -27593,16 +27593,16 @@
         <v>223.2171002436558</v>
       </c>
       <c r="U4" t="n">
-        <v>22.69467346577455</v>
+        <v>286.2586656647723</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.95900613759329</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,7 +27621,7 @@
         <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917676</v>
+        <v>341.8380799827775</v>
       </c>
       <c r="E5" t="n">
         <v>118.2164900707556</v>
@@ -27636,7 +27636,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>230.489912899127</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>101.1379383879323</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778209</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>46.73836361224026</v>
+        <v>119.044026754131</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27833,10 +27833,10 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.8091183350848</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>383.1781139862433</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>247.5786016928006</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28061,25 +28061,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>86.14685532180324</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>262.5773610745044</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.133261760295336e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-7.187842258066608e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.133261760295336e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-3.893815138030078e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29043,7 +29043,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>7.07318341828168e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29714,7 +29714,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30167,7 +30167,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-7.541226902200529e-12</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30528,7 +30528,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30641,7 +30641,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>-3.150052318599543e-12</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467125758684184</v>
+        <v>2.467125758684196</v>
       </c>
       <c r="H2" t="n">
-        <v>25.2664516761244</v>
+        <v>25.26645167612453</v>
       </c>
       <c r="I2" t="n">
-        <v>95.11386581167208</v>
+        <v>95.11386581167255</v>
       </c>
       <c r="J2" t="n">
-        <v>209.3942148611219</v>
+        <v>209.394214861123</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8276482262235</v>
+        <v>313.8276482262251</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3309481635546</v>
+        <v>389.3309481635566</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2056958745545</v>
+        <v>433.2056958745566</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2154169364159</v>
+        <v>440.2154169364181</v>
       </c>
       <c r="O2" t="n">
-        <v>415.6829351735001</v>
+        <v>415.6829351735021</v>
       </c>
       <c r="P2" t="n">
-        <v>354.7757680059842</v>
+        <v>354.775768005986</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4218267731068</v>
+        <v>266.4218267731081</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9755884389455</v>
+        <v>154.9755884389463</v>
       </c>
       <c r="S2" t="n">
-        <v>56.21962822601589</v>
+        <v>56.21962822601617</v>
       </c>
       <c r="T2" t="n">
-        <v>10.79984300864002</v>
+        <v>10.79984300864007</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973700606947346</v>
+        <v>0.1973700606947356</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320028654752581</v>
+        <v>1.320028654752588</v>
       </c>
       <c r="H3" t="n">
-        <v>12.74869779721572</v>
+        <v>12.74869779721578</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44835499915685</v>
+        <v>45.44835499915708</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7137598773042</v>
+        <v>124.7137598773048</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1556797457271</v>
+        <v>213.1556797457282</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6141164628356</v>
+        <v>286.6141164628371</v>
       </c>
       <c r="M3" t="n">
-        <v>334.4651551976166</v>
+        <v>334.4651551976183</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3174526235671</v>
+        <v>343.3174526235688</v>
       </c>
       <c r="O3" t="n">
-        <v>314.0683966419441</v>
+        <v>314.0683966419457</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0675770641135</v>
+        <v>252.0675770641147</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5004998592944</v>
+        <v>168.5004998592952</v>
       </c>
       <c r="R3" t="n">
-        <v>81.95756858191905</v>
+        <v>81.95756858191946</v>
       </c>
       <c r="S3" t="n">
-        <v>24.51895330209288</v>
+        <v>24.518953302093</v>
       </c>
       <c r="T3" t="n">
-        <v>5.320641814550972</v>
+        <v>5.320641814550997</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08684399044424879</v>
+        <v>0.08684399044424922</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106667681508131</v>
+        <v>1.106667681508137</v>
       </c>
       <c r="H4" t="n">
-        <v>9.839281750135939</v>
+        <v>9.839281750135989</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28051536753546</v>
+        <v>33.28051536753562</v>
       </c>
       <c r="J4" t="n">
-        <v>78.24140508262489</v>
+        <v>78.24140508262528</v>
       </c>
       <c r="K4" t="n">
-        <v>128.574663360672</v>
+        <v>128.5746633606726</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5313023943999</v>
+        <v>164.5313023944007</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4751893840428</v>
+        <v>173.4751893840437</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3503371166035</v>
+        <v>169.3503371166044</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4224464735312</v>
+        <v>156.422446473532</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8464257707652</v>
+        <v>133.8464257707659</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.66832740337635</v>
+        <v>92.66832740337682</v>
       </c>
       <c r="R4" t="n">
-        <v>49.75980320672015</v>
+        <v>49.7598032067204</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28619950410079</v>
+        <v>19.28619950410089</v>
       </c>
       <c r="T4" t="n">
-        <v>4.728489184625651</v>
+        <v>4.728489184625675</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06036369171862542</v>
+        <v>0.06036369171862573</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192562</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,37 +32788,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>577.744719843939</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,22 +33025,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192562</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,22 +33262,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192562</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,22 +33499,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982898</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,22 +33736,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>444.22749159829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,22 +33973,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,22 +34210,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,22 +34447,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.3991393430299</v>
+        <v>28.34831033443669</v>
       </c>
       <c r="K2" t="n">
-        <v>93.73779718124291</v>
+        <v>93.7377971812445</v>
       </c>
       <c r="L2" t="n">
-        <v>153.5645331935674</v>
+        <v>153.5645331935693</v>
       </c>
       <c r="M2" t="n">
-        <v>202.8594626472817</v>
+        <v>202.8594626472839</v>
       </c>
       <c r="N2" t="n">
-        <v>210.802353339825</v>
+        <v>211.8531823484124</v>
       </c>
       <c r="O2" t="n">
-        <v>185.5847237518134</v>
+        <v>185.5847237518154</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5427722507147</v>
+        <v>123.5427722507164</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.11613689865735</v>
+        <v>44.11613689865865</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.31424077136811</v>
+        <v>173.1562724867795</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0597366829614</v>
+        <v>148.0597366829629</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3311212755983</v>
+        <v>192.3311212756</v>
       </c>
       <c r="N3" t="n">
-        <v>211.9757405402338</v>
+        <v>211.9757405402355</v>
       </c>
       <c r="O3" t="n">
-        <v>171.4721521974997</v>
+        <v>171.4721521975013</v>
       </c>
       <c r="P3" t="n">
-        <v>215.9352013651981</v>
+        <v>118.0931696497845</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.51872577327288</v>
+        <v>28.5187257732737</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3051715347891</v>
+        <v>106.3051715347898</v>
       </c>
       <c r="L4" t="n">
-        <v>192.121327654716</v>
+        <v>192.1213276547168</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0590663458834</v>
+        <v>213.0590663458842</v>
       </c>
       <c r="N4" t="n">
-        <v>213.4825094958321</v>
+        <v>213.482509495833</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0075743875709</v>
+        <v>181.0075743875717</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1249850356587</v>
+        <v>131.1249850356594</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.506284151681967</v>
+        <v>6.506284151682436</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.3216690912724</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35032,10 +35032,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35272,7 +35272,7 @@
         <v>514.7099619750473</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>199.0097390795102</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060417</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359229</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>439.1903400640649</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.587454168383</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359229</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396427</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359229</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572999021</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>302.0934576762715</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>302.0934576762717</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326294578</v>
+        <v>81.04648326295711</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326294881</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.587454168382</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
